--- a/biology/Zoologie/Conus_monicae/Conus_monicae.xlsx
+++ b/biology/Zoologie/Conus_monicae/Conus_monicae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus monicae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille varie entre 45 mm et 61 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans la mer des Caraïbes, au large d'Aruba.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus monicae a été décrite pour la première fois en 2015 par les malacologistes Edward James Petuch (d)[1] et David P. Berschauer[2] dans « The Festivus »[3],[4].
-Synonymes
-Tenorioconus monicae Petuch &amp; Berschauer, 2015 · non accepté (combinaison originale)</t>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus monicae a été décrite pour la première fois en 2015 par les malacologistes Edward James Petuch (d) et David P. Berschauer dans « The Festivus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_monicae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_monicae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tenorioconus monicae Petuch &amp; Berschauer, 2015 · non accepté (combinaison originale)</t>
         </is>
       </c>
     </row>
